--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8382.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8382.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openl-pub\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C5F5D-B1AB-4CCE-8EBA-5517A73BAB7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24915" windowHeight="11820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Datatype  MyType</t>
   </si>
@@ -51,102 +57,110 @@
     <t>text1</t>
   </si>
   <si>
-    <t>text3</t>
-  </si>
-  <si>
     <t>test33</t>
   </si>
   <si>
+    <t>subfield1</t>
+  </si>
+  <si>
+    <t>subField.field1.subfield1</t>
+  </si>
+  <si>
+    <t>subfield2</t>
+  </si>
+  <si>
+    <t>subField.field1.subfield2</t>
+  </si>
+  <si>
+    <t>subField.field1._PK_</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
+  </si>
+  <si>
+    <t>ddd</t>
+  </si>
+  <si>
+    <t>Datatype SubSubType</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>_PK_</t>
+  </si>
+  <si>
+    <t>SubSubType[]</t>
+  </si>
+  <si>
+    <t>Method  MyType  myMeth(MyType myObj)</t>
+  </si>
+  <si>
+    <t>return  myObj;</t>
+  </si>
+  <si>
+    <t>Test    myMeth   myMeth_test</t>
+  </si>
+  <si>
+    <t>myObj</t>
+  </si>
+  <si>
+    <t>&gt;myData</t>
+  </si>
+  <si>
+    <t>_res_</t>
+  </si>
+  <si>
+    <t>ccc</t>
+  </si>
+  <si>
+    <t>String[]</t>
+  </si>
+  <si>
+    <t>Data MyType myDataSr</t>
+  </si>
+  <si>
+    <t>&gt;myDataSr</t>
+  </si>
+  <si>
+    <t>subField.field1[0].subfield1</t>
+  </si>
+  <si>
+    <t>subField.field1[0].subfield2</t>
+  </si>
+  <si>
+    <t>subField.field1[1].subfield1</t>
+  </si>
+  <si>
+    <t>subField.field1[1].subfield2</t>
+  </si>
+  <si>
     <t>test44</t>
   </si>
   <si>
-    <t>subfield1</t>
-  </si>
-  <si>
-    <t>subField.field1.subfield1</t>
-  </si>
-  <si>
-    <t>subfield2</t>
-  </si>
-  <si>
-    <t>subField.field1.subfield2</t>
-  </si>
-  <si>
-    <t>subField.field1._PK_</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>aaa</t>
-  </si>
-  <si>
-    <t>bbb</t>
-  </si>
-  <si>
-    <t>ddd</t>
-  </si>
-  <si>
-    <t>Datatype SubSubType</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>_PK_</t>
-  </si>
-  <si>
-    <t>SubSubType[]</t>
-  </si>
-  <si>
-    <t>Method  MyType  myMeth(MyType myObj)</t>
-  </si>
-  <si>
-    <t>return  myObj;</t>
-  </si>
-  <si>
-    <t>Test    myMeth   myMeth_test</t>
-  </si>
-  <si>
-    <t>myObj</t>
-  </si>
-  <si>
-    <t>&gt;myData</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>ccc</t>
-  </si>
-  <si>
-    <t>String[]</t>
-  </si>
-  <si>
-    <t>Test    myMeth   myMeth_test2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>DDD</t>
+    <t>test3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,21 +199,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -226,7 +240,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -235,14 +249,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -280,9 +297,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,9 +332,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -350,9 +384,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -525,28 +576,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="7" width="28.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -565,14 +615,14 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -580,24 +630,24 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="B15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -605,7 +655,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -619,43 +669,43 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -665,105 +715,109 @@
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>2</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>3</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2">
         <v>3</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>35</v>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4">
+      <c r="D27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>23</v>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="C36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>3</v>
       </c>
@@ -771,11 +825,77 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C24:C25"/>
@@ -792,7 +912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -804,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8382.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8382.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\openl-pub\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52C5F5D-B1AB-4CCE-8EBA-5517A73BAB7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC5B620-F903-4C69-8102-8311C533CA07}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Datatype  MyType</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>test3</t>
+  </si>
+  <si>
+    <t>test33, test44</t>
+  </si>
+  <si>
+    <t>5, 2</t>
   </si>
 </sst>
 </file>
@@ -201,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -211,6 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -577,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B6:H45"/>
+  <dimension ref="B6:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,6 +832,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>35</v>
@@ -884,7 +899,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
         <v>23</v>
@@ -894,6 +909,29 @@
       </c>
       <c r="H45" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
